--- a/target/test-classes/DataAdvantage.xlsx
+++ b/target/test-classes/DataAdvantage.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">postalcode</t>
   </si>
   <si>
-    <t xml:space="preserve">user1Plan</t>
+    <t xml:space="preserve">user4Plan</t>
   </si>
   <si>
     <t xml:space="preserve">user1@btr.com</t>
@@ -267,7 +267,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/target/test-classes/DataAdvantage.xlsx
+++ b/target/test-classes/DataAdvantage.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">postalcode</t>
   </si>
   <si>
-    <t xml:space="preserve">user4Plan</t>
+    <t xml:space="preserve">user5Plan</t>
   </si>
   <si>
     <t xml:space="preserve">user1@btr.com</t>
@@ -267,7 +267,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/target/test-classes/DataAdvantage.xlsx
+++ b/target/test-classes/DataAdvantage.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">postalcode</t>
   </si>
   <si>
-    <t xml:space="preserve">user5Plan</t>
+    <t xml:space="preserve">user6Plan</t>
   </si>
   <si>
     <t xml:space="preserve">user1@btr.com</t>
@@ -267,7 +267,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
